--- a/nomes_funções.xlsx
+++ b/nomes_funções.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29116"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9C52F60-2A00-4B80-AE15-643D7D15734F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2341672F-0AEC-4705-9946-C4A2445166B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
   <si>
     <t>Nomes</t>
   </si>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection sqref="A1:O24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -703,9 +703,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1001,9 +999,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1083,9 +1079,7 @@
         <v>16</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
         <v>16</v>
       </c>
